--- a/biology/Botanique/David_Austin/David_Austin.xlsx
+++ b/biology/Botanique/David_Austin/David_Austin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Charles Henshaw Austin, né le 16 février 1926 à Albrighton dans le Shropshire (Angleterre) et mort le 18 décembre 2018 dans la même ville, est un créateur britannique de roses.
 </t>
@@ -511,13 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son enfance, David Austin est marqué par sa grand-mère Clara, dont la demeure victorienne, qu'il habitera d'ailleurs plus tard, orne depuis le logo de sa marque. Jardinière passionnée, elle encourage son petit-fils à planter des légumes et des fleurs puis à aller les vendre à Albrighton. Sa première expérience professionnelle se déroule ensuite chez un ami de son père fermier, James Baker, qui cultive des lupins[1].
-En pleine Guerre froide, il tente en vain d'inventer, à partir de semences russes, des semis de céréales qui auraient été capables de se replanter tous seuls en quelques années. Malgré plusieurs échecs initiaux dans la culture de rose, il persévère jusqu'au succès[1].
-Il a publié plusieurs ouvrages et, féru de littérature britannique, rédige des poèmes. Les noms de ses roses s'inspirent régulièrement de la littérature ('Imogen' et 'Othello' pour William Shakespeare) ou de la monarchie britannique ('Princess Anne', 'Princess Alexandra of Kent', ou 'William and Catherine', etc.)[1].
-Famille
-David Austin est le père d'un fils (David junior), qui a pris sa succession dans son travail, et de filles[1], dont une, Claire, est pépiniériste, et à qui son père a dédié la rose 'Claire Austin'.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son enfance, David Austin est marqué par sa grand-mère Clara, dont la demeure victorienne, qu'il habitera d'ailleurs plus tard, orne depuis le logo de sa marque. Jardinière passionnée, elle encourage son petit-fils à planter des légumes et des fleurs puis à aller les vendre à Albrighton. Sa première expérience professionnelle se déroule ensuite chez un ami de son père fermier, James Baker, qui cultive des lupins.
+En pleine Guerre froide, il tente en vain d'inventer, à partir de semences russes, des semis de céréales qui auraient été capables de se replanter tous seuls en quelques années. Malgré plusieurs échecs initiaux dans la culture de rose, il persévère jusqu'au succès.
+Il a publié plusieurs ouvrages et, féru de littérature britannique, rédige des poèmes. Les noms de ses roses s'inspirent régulièrement de la littérature ('Imogen' et 'Othello' pour William Shakespeare) ou de la monarchie britannique ('Princess Anne', 'Princess Alexandra of Kent', ou 'William and Catherine', etc.).
 </t>
         </is>
       </c>
@@ -543,17 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Productions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ses roses ont une forme proche des roses anciennes, roses galliques, Damas, albas ou hybrides remontants. Elles en ont aussi le parfum, avec souvent quelques nuances plus citronnées qui les distinguent. Mais elles offrent la floraison continue des roses modernes, hybrides de thé ou floribunda ainsi que des dégradés de jaune, saumon, corail et orangé absents dans les variétés les plus anciennes. 
-En croisant des variétés anciennes, particulièrement parfumées, avec des hybrides de thé et des floribundas, bien remontants et disposant d'une vaste gamme de coloris, il produit sa première rose, ‘Constance Spry’ en 1961, puis ‘Chianti’ et ‘Shropshire Lass’ en 1967 et 1968. David Austin réussit en 1969 la synthèse entre la « rose ancienne » et la « rose moderne »[1].
-Par la suite, il a créé des variétés de rosiers remontants dont ‘Wife of Bath’ et ‘Canterbury’ (en l'honneur de l'écrivain Geoffrey Chaucer).  Et les roses David Austin ont commencé à connaître le succès, le plus important de la fin du XXe siècle. David Austin garde pour but la création de roses modernes qui conservent le parfum des roses anciennes, on les appelle « les roses anglaises ».
-Bien que n'étant pas reconnues officiellement sous l'appellation « roses anglaises » ou   « roses David Austin », par la Royal National Rose Society et l'American Rose Society, c'est sous ce nom qu'elles sont classées chez les pépiniéristes, horticulteurs, dans les catalogues et les publications.
-Depuis sa fondation en 1969, la firme « David Austin Roses » à Albrighton, près de Wolverhampton, a créé plus de 190 rosiers (234 en 2016[1]), souvent aux noms d'Anglais célèbres et en particulier Shakespeare.
-Son catalogue de 600 variétés, en anglais, français et allemand (également traduit par le passé en japonais) est tiré chaque année à 500 000 exemplaires[1].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Austin est le père d'un fils (David junior), qui a pris sa succession dans son travail, et de filles, dont une, Claire, est pépiniériste, et à qui son père a dédié la rose 'Claire Austin'.
 </t>
         </is>
       </c>
@@ -579,13 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix et récompenses</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, David Austin reçoit les médailles de la Royal Horticultural Society et de la Royal National Rose Society. Il a aussi été honoré pour la création de la Garden Centre Association en 2004.
-En 2007, il est fait officier de l'ordre de l'Empire britannique[1].
+          <t>Productions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses roses ont une forme proche des roses anciennes, roses galliques, Damas, albas ou hybrides remontants. Elles en ont aussi le parfum, avec souvent quelques nuances plus citronnées qui les distinguent. Mais elles offrent la floraison continue des roses modernes, hybrides de thé ou floribunda ainsi que des dégradés de jaune, saumon, corail et orangé absents dans les variétés les plus anciennes. 
+En croisant des variétés anciennes, particulièrement parfumées, avec des hybrides de thé et des floribundas, bien remontants et disposant d'une vaste gamme de coloris, il produit sa première rose, ‘Constance Spry’ en 1961, puis ‘Chianti’ et ‘Shropshire Lass’ en 1967 et 1968. David Austin réussit en 1969 la synthèse entre la « rose ancienne » et la « rose moderne ».
+Par la suite, il a créé des variétés de rosiers remontants dont ‘Wife of Bath’ et ‘Canterbury’ (en l'honneur de l'écrivain Geoffrey Chaucer).  Et les roses David Austin ont commencé à connaître le succès, le plus important de la fin du XXe siècle. David Austin garde pour but la création de roses modernes qui conservent le parfum des roses anciennes, on les appelle « les roses anglaises ».
+Bien que n'étant pas reconnues officiellement sous l'appellation « roses anglaises » ou   « roses David Austin », par la Royal National Rose Society et l'American Rose Society, c'est sous ce nom qu'elles sont classées chez les pépiniéristes, horticulteurs, dans les catalogues et les publications.
+Depuis sa fondation en 1969, la firme « David Austin Roses » à Albrighton, près de Wolverhampton, a créé plus de 190 rosiers (234 en 2016), souvent aux noms d'Anglais célèbres et en particulier Shakespeare.
+Son catalogue de 600 variétés, en anglais, français et allemand (également traduit par le passé en japonais) est tiré chaque année à 500 000 exemplaires.
 </t>
         </is>
       </c>
@@ -611,10 +630,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, David Austin reçoit les médailles de la Royal Horticultural Society et de la Royal National Rose Society. Il a aussi été honoré pour la création de la Garden Centre Association en 2004.
+En 2007, il est fait officier de l'ordre de l'Empire britannique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_Austin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Austin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Livres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>The Heritage of the Rose (1987),
 Old Roses and English Roses (1992),
